--- a/报价/收费方给的表格.xlsx
+++ b/报价/收费方给的表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\shenme-spider\check-price\报价\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\shenme-spider\报价\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24736520-E628-47A9-83A1-9B739221975D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FA17EC-C368-445B-A55D-F5820F062ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -449,6 +453,32 @@
         <v>100</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
